--- a/500all/speech_level/speeches_CHRG-114hhrg95601.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg95601.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="148">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Whitfield</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Whitfield. I would like to call the hearing to order this morning. I know we are going to have some votes. This is a very important hearing, and we certainly want to give everyone an opportunity to give their opening statement and ask questions.    Today's hearing is about H.R. 906, a bill to modify the efficiency standards for grid-enabled water heaters. Many of you may remember a singing group called Dire Straits, and they had this marvelous song, Money for Nothing and the chicks are free. And in the lyrics of that song they talk about moving and selling microwave ovens, refrigerators, and color TVs. And we know in today's world, you can't sell a microwave oven or a color TV or a refrigerator or anything else without the Government dictating what is in the product.    So we find ourselves in a world where the Government is really micromanaging through regulations really everything in our society, whether we are talking about healthcare, the requirements for a community bank to make to a farmer in Kentucky, to make a loan. And now today--last March, I guess it was--the Department of Energy came out with a regulation about hot water heaters.    So we are here today to discuss a bill that will bring regulatory relief to many electricity providers, manufacturers, and consumers across the country. There are approximately 250 electric cooperatives in 34 States that utilize these large electric resistance water heaters in demand response programs to help with reliability and consumer costs during peak periods of energy use.    As I said, the Department issued this new efficiency standard in March of 2010, and they are prohibiting the manufacture of water heaters that are 55 gallons or larger if they are electric resistance heaters, and they are mandating that they go to heat pump technology.    You know, all of us here in Congress, we have groups come in all the time talking about the Government's control in what kind of fan motor you can have, what kind of light bulb you can have, whatever. This is one of those issues that I think just about every Member of Congress agrees that when you are interfering with demand response programs, it is counterproductive.    So hopefully we can introduce this bill, and if people want to try to amend it or whatever, do regular order and try to bring some relief to the American consumer. I get really excited when I think about hot water heaters, and I would like to say more, but right now I am going to yield 1 minute to Mr. Latta of Ohio.</t>
   </si>
   <si>
     <t>412256</t>
   </si>
   <si>
-    <t>Robert E. Latta</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Latta. I appreciate the chairman for yielding, and you are absolutely right. We all love those hot water heaters when you get in there in the shower in the morning. But Mr. Chairman, thanks again for having this very important hearing today to discuss this very important legislation to modify the efficiency standards for grid-enabled hot water heaters. I am pleased to be a cosponsor of the legislation. I hope the committee can advance the legislation quickly as you said, and that there is great bipartisan support.    The rural electric cooperatives are very important in my district. They provide power to agriculture and manufacturing operations that are important to the local, State, and national and global economy. In fact, I have seven rural electric co-ops in my district, and all seven use voluntary demand response programs to reduce peak demand, increase the use of renewable energy, and decrease costs to the consumer. This legislation permits the continued manufacturing of electric resistant hot water heaters above 75 gallons for use in thermal energy storage and demand response programs. Enabling the manufacturing of these water heaters is vital for the demand response programs. I look forward to today's testimony, Mr. Chairman, and I yield back. I appreciate it. Thank you.</t>
   </si>
   <si>
@@ -82,9 +76,6 @@
     <t>412239</t>
   </si>
   <si>
-    <t>Peter Welch</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Welch. Well, I can't match your lyrics, but I can agree with everything you have said and my colleague, Mr. Latta. You know, the Department of Energy does really good stuff, and I actually think standards are a very important tool. But we also have to have it match what realistically can be done in order to get the benefit of demand response. And there are a lot of homes that have these water heaters that are going to benefit, and this is going to save folks money. So the regulation I think has to have as a goal the maximum deployment and the maximum energy efficiency. And I think that is what is uniting us in this effort here.    I am like Congressman Latta. The local cooperatives are fantastic and really a lifeline for a lot of our citizens in rural areas. And homeowners are doing everything they can to try to save money on their bills. They need an opportunity. They know that less is more if they can save some money. And then when they have their cooperative working with them in this demand response that actually integrates this opportunity of savings with the technology that people actually have in their homes, let us take advantage of it.    So this is great bipartisan legislation, and I am hopeful that we can get this done. And I appreciate, Mr. Chairman and Mr. Ranking Member, your cooperation on this in leading the committee. Thank you. I yield back.</t>
   </si>
   <si>
@@ -100,18 +91,12 @@
     <t xml:space="preserve">    Mr. Whitfield. I would like to call the hearing back to order, and we do expect some of the other members to be here shortly. As I said, we have a great panel of witnesses. I want to thank all of you for coming, and I am just going to introduce you individually as you prepare to give your statement. So our first witness this morning is Gary Connett, who is the Director for Member Services and Demand-Side Management at the Great River Energy entity. So Mr. Connett, you are recognized for 5 minutes. And I would just ask all of you to pull the microphone up close enough so that we can hear you clearly. And thank you for being with us, Mr. Connett.</t>
   </si>
   <si>
-    <t>Connett</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Connett. Thank you. Chairman Whitfield and members of the subcommittee, thank you for inviting me to testify today on legislation to protect grid-enabled water heaters.    You mentioned my name. My name is Gary Connett, Director of Demand-Side Management at Great River Energy, a generation and transmission cooperative that serves 28 member retail distribution cooperatives located in Minnesota and Northwestern Wisconsin. And I, by the way, am one of these people that actually has one of these water heaters that we are talking about today. I want to thank the subcommittee for addressing this important and timely issue. Large-capacity electric resistance water heaters are essential demand response tools for electric cooperatives. Immediate action is needed to mitigate the impacts of a 2010 Department of Energy efficiency rule and help maintain our ability to use those water heaters in voluntary demand response programs.    The DOE rule which goes into effect on April 16, as you mentioned, effectively bans the manufacture of electric resistance water heaters with this storage capacity of over 55 gallons. As manufacturers prepare to shut down production lines, this widely supported legislation is urgently needed.    The electric industry is searching for a low-cost battery to store electricity. At Great River Energy, we think we have it. It is in the basements of nearly 100,000 homes in Minnesota. It charges each night and discharges every day in the form of hot water. It does this night after night, year after year, storing and discharging over 1,000 megawatt hours every day. I would argue that it might be the largest battery in the upper Midwest. This battery consists precisely of the same water heaters that the DOE wants to ban.    Through demand response programs offered by electric cooperatives, these super-insulated, high-efficiency water heaters store low-cost off-peak energy which is available in the nighttime hours. We store it in the form of hot water. They allow for the better utilization of renewable energy and more efficient operation of the electric grid. More importantly, water heaters play an important role in cooperatives' efforts to provide its member-owners with safe, reliable, and affordable electric energy.    Even when not tied to renewable energy, cooperatives across the country use these water heaters to reduce demand for electricity during peak hours which would otherwise be served by additional and less efficient electric generators. Today over 250 electric cooperatives across the country are engaged in voluntary demand response programs using large-capacity electric-resistance water heaters.    They are one of the best tools cooperatives have for integrating renewable energy and encouraging demand response and improving system reliability.    So on April 16 a new efficiency standard will take effect. This standard will require all large-capacity electric water heaters to operate at about 200 percent efficiency, a level that only heat-pump water heaters can achieve. While heat pump water heaters are energy efficient, they don't work so well with utility demand response programs and they don't work so well in cold climates, such as Minnesota.    The DOE, despite its good intentions, was unaware of the impact that its rule would have on utilities' demand response programs. However, due to regulatory hurdles, the DOE has not been able to resolve the issue.    In a great cooperative fashion, the National Rural Electric Cooperative Association worked with a large stakeholder group to come up with a legislative solution that will not only help protect these water heaters but will also advance water heater technology by establishing criteria for grid-enabled water heaters. The widespread stakeholder support for this solution should make it an easy decision to pass this urgent legislation immediately.    H.R. 906 doesn't repeal the DOE standard but rather permits the continued manufacture of large capacity water heaters above 75 gallons for use in demand response programs. The legislation includes language to prevent these water heaters from entering the market unless they are used in utility demand response programs.    As the subcommittee is aware, the consensus legislation has been incorporated into numerous pieces of energy efficiency legislation in both the House and the Senate over the past 2 years. Last March the House passed H.R. 2126, the Energy Efficiency Improvement Act, by an overwhelming vote of 375 to 36. Three of the four titles of H.R. 2126 were recently attached to S. 1, a bill to approve the Keystone pipeline, a bill that passed both the House and Senate in this Congress but was vetoed for reasons unrelated to the water heater title.    In summary, H.R. 906 is a good bill. It fixes things to everyone's liking. On behalf of Great River Energy and the other cooperatives across the Nation who face the threat to this new DOE standard, I want to thank Chairman Whitfield and Representative Welch as well as Representatives Latta, Loebsack, Cramer, and Doyle for their leadership on the current legislation and persistence in seeing it through. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Whitfield. Mr. Connett, thank you very much for your statement. At this time, I would like to recognize Steven Koep who is the Utility Sales Manager at the Vaughn Thermal Corporation and the Vaughn Electric Water Heaters. Thank you very much for being with us this morning, and we look forward to your 5 minutes of testimony.</t>
   </si>
   <si>
-    <t>Koep</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Koep. Good morning and thank you.</t>
   </si>
   <si>
@@ -136,18 +121,12 @@
     <t xml:space="preserve">    Mr. Whitfield. Thanks very much, Mr. Koep. At this time I would like to introduce Mr. Steve Nadel who is the Executive Director of the American Council for an Energy-Efficient Economy. Thanks for being with us, and you are recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Nadel</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Nadel. OK. Thank you, Mr. Chairman, Mr. Ranking Member, the members of the committee. As you noted, I am with the American Council for an Energy-Efficient Economy. We are a non-profit research organization that works on technologies, programs, and policies to advance energy efficiency. We have been doing this for 35 years now, and over this period, substantial progress has been made on energy efficiency, due in part to strong bipartisan support from Congress. As you, Mr. Chairman, stated at a previous hearing I testified at, no one is in favor of energy waste.    I am here today like the other witnesses to testify in support of H.R. 906. Water heating is a major use of home energy use, second only to space heating. For homes with electric water heating, the water heater is generally the single largest electricity user. Due to the high cost of water heaters, they were included in part of Federal energy efficiency standards passed by Congress in 1987 and signed by President Reagan. Congress set the initial standards, and DOE periodically revises these standards based on criteria that Congress established.    A 2012 analysis estimates that the standards already enacted on water heaters as well as other products are saving consumers and businesses in the United States a cumulative trillion dollars. So these are enormous savings, not million, not billion, trillion.    In 2010, as we have already heard, after a multistep rulemaking process, DOE established new efficiency standards for water heaters that take effect next month. The standards apply at the point of manufacture and do not affect water heaters already in houses or in the sales distribution system. The new standards require moderate efficiency improvements in water heaters with a storage capacity of 55 gallons or less but much larger efficiency improvements in both electric and gas water heaters over 55 gallons. I would note that 50 gallons is the average electric water heater. So these only apply above those stronger standards, above that.    Households with very large water heaters use more hot water on average, making higher efficiency levels cost effective. When DOE established the standards, it estimated that the average household with a very large electric water heater would save over $600 over the life cycle of their high efficiency unit.    Now, as we have heard, many electric cooperatives as well as some other utilities have long sponsored programs to use water heaters to heat and store hot water during off-peak periods, such as overnight, permitting lower energy use during peak periods. These programs help utilities manage their systems by reducing peak loads. A timer or radio control or other type of communication device controls the water heaters to generally stop them from operating during peak periods.    After DOE issued the rule in 2010, some utilities realized that the very large electric-resistance water heaters they sometimes use in demand response and thermal storage programs would no longer be manufactured. There are heat pump water heaters, but these have not yet been fully evaluated and field tested for use in demand response and thermal storage programs.    To address these concerns, as we have all heard, many organizations negotiated the language in H.R. 906, and we very much appreciate the chairman and the other cosponsors. It carefully balances opportunities for saving energy via high-efficiency water heaters with the benefits to utilities of using large electric water heaters and demand response and thermal storage programs. It allows for the continued manufacture of these large electric resistance water heaters with a variety of provisions to limit their use to homes participating in demand response and thermal storage programs. The bill also provides guidance so that DOE will carefully consider both energy efficiency and demand response opportunities in future rulemakings.    So, as I said, we do support this bill. We also recommend that this committee consider other energy efficiency bills. We hope that this is just the beginning of what we think could be a very productive Congress in terms of energy efficiency. So with that, I look forward to your questions, and thank you for the opportunity to testify.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Whitfield. Thank you very much, Mr. Nadel, for that statement. At this time I would like to recognize Mr. Robin Roy who is the Director for Building Energy Efficiency and Clean Energy Strategy at the Natural Resources Defense Council. Thank you very much for being with us, and you are recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Roy</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Roy. Thank you, Mr. Chairman, and members of the subcommittee. Thank you for the opportunity to share the views of the Natural Resources Defense Council on grid-enabled water heaters which we believe present a promising opportunity for a more efficient, more economic, and ultimately lower emissions electricity system overall. We really appreciate your leadership on this issue and your sponsorship of this bill.    In brief, NRDC supports H.R. 906 to allow continued production, use, and evaluation of grid-enabled water heaters. One of NRDC's top institutional priorities is creating and facilitating a clean energy future, and to that end we have long supported and advocated for greater energy efficiency, greater productivity, and using Federal energy appliance standards as one tool in the portfolio for getting there.    Given our longstanding support for stronger energy efficiency, it may seem surprising that we support this legislation, which allows for continued production of electric resistance water heaters that may use double or more the energy of a heat pump water heater that would otherwise be required. But there is a good reason. We explored the opportunities. We talked to our colleagues here and many others in manufacturing and among utilities, and we found the case persuasive. We worked with these colleagues from manufacturing, utilities, other efficiency and environmental organizations, and we came up with an approach that delivers on the opportunity for efficiency savings and delivers on the opportunity for grid-interactive water heating, demand response and ancillary services. It doesn't undermine the opportunities from the efficiency standards. This language is a product of that work.    I have to say as a bit of an aside, sometimes when a lot of folks get together, it is hard work to come up with something that we can all agree on. We come with different perspectives. And sometimes that goes into an abyss. We never hear anything from it again. And it is so pleasing to see something like H.R. 906. I really do appreciate the effort. We see the result of our hard work, and it kind of encourages us at NRDC to do more of that, reaching out to other parties, and I really do appreciate that. I know I burned some time on that, but it is really important.    The key opportunity here is, as my colleagues have already expressed, is the achievement of benefits at a system level. Federal energy appliance standards focus on the component level. We recognize the difference. We are looking towards having while maybe more energy use, having that energy use at more attractive times, lower cost, lower emissions, overall just a much better outcome. We are very keen on that. We recognize that that is the opportunity that is presented by this water heater energy storage, this large battery as my colleagues have said. We are very keen on it.    One of the key elements of H.R. 906 that we are so delighted by is that it allows for, really encourages, much more analysis of consumer and environmental impacts from grid-enabled water heaters. It is built right in. There is so much to be learned about the effectiveness of these water heaters. Actually, there is so much to be learned about not just grid-enabled water heaters but about heat pump water heaters and what might be done to optimize our energy use delivering the greatest consumer and environmental outcomes.    We are at a really early stage analytically. It is inherently complex. There are a lot of other water heater technologies existing and emerging. Conditions in Mr. Connett's area are different from conditions in the Pacific Northwest, and those are different from those in the South. Getting analysis right is not always that easy, but it is really worth doing for water heaters. They are 15 percent or more of residential energy use. They are big. If we get this one right, even small improvements can deliver great consumer and environmental outcomes.    One issue that is often on some people's minds is whether this grid-enabled water heater legislation will pose a problem for heat pump water heaters. We don't think that is the case. We think that grid-enabled water heaters, this legislation, focuses on a fairly small market segment where heat pump water heaters may not be most well-suited and in fact, the attention to water heating, the further analysis that will come from this, may actually end up delivering much more advance in all sorts of water heater technologies, both in development of technologies and understanding them and deploying them through good utility programs and consumer choices.    I think that is really pretty much all I want to say. I can talk a little bit more about our long and abiding love for Federal energy standards as one of the tools in the portfolio that give us a more efficient, economic future, but I think that is already on the record pretty well. I appreciate the opportunity.</t>
   </si>
   <si>
@@ -211,9 +190,6 @@
     <t>412487</t>
   </si>
   <si>
-    <t>David B. McKinley</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. McKinley. Thank you, Mr. Chairman, and thank you for having this hearing. I am curious back on the comment that I think it was you, Mr. Koep, said about the heat pump water heater at around the cost of $1,500. Also labor would be a little higher, too, wouldn't it, installing that?</t>
   </si>
   <si>
@@ -283,9 +259,6 @@
     <t>412319</t>
   </si>
   <si>
-    <t>Paul Tonko</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Tonko. Thank you, Mr. Chair, and welcome to our panelists. Mr. Connett, what are your estimates for savings to the utility and to the customer, to consumers, achieved through the use of demand-response programs?</t>
   </si>
   <si>
@@ -367,9 +340,6 @@
     <t>412485</t>
   </si>
   <si>
-    <t>H. Morgan Griffith</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Griffith. Thank you very much, Mr. Chairman. I appreciate you all being here, and listening to your testimony today is making me think I should go ahead and get a new hot water heater because mine clearly is not going be nearly as efficient as what you all are talking about.    I am concerned about some things. The gentleman just brought up the warning label. I do think that we probably need to take a look at that and see if we can make sure we let folks know that it will go to 50 percent of efficiency if it is tampered with, and the whole lock-and-key mechanism concerns me some. I will tell you that when this was a part of a Senate amendment to a House bill, I looked at it, and fortunately the penalties do not include incarceration for trying to get around the system by doing something to the machine. But it does include a fine penalty which causes me concern. It always makes me nervous when we are mandating things. And so I am trying to figure out--and I know most consumers will just, you know, this is what is available on the market. If something happens, their plumber tells them this is what you need to buy. They will buy that or they will go to the Home Depot and get something off the shelf. But if somebody really wants to have 100 gallons ready whenever they want it, what would keep them from buying two, 50-gallon hot water heaters under this program or this bill?</t>
   </si>
   <si>
@@ -422,9 +392,6 @@
   </si>
   <si>
     <t>400160</t>
-  </si>
-  <si>
-    <t>Gene Green</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Green. Thank you, Mr. Chairman. I would like to put my statement into the record, and I can go straight to questions.    Mr. Roy, I have some questions, and I have to admit, coming from Texas and refining and oil, we normally don't agree with the NRDC. But today that is a different case. Does NRDC have a sense of why new efficiency standards were proposed by DOE?</t>
@@ -889,11 +856,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -913,13 +878,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -941,11 +904,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -967,11 +928,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -993,11 +952,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1019,11 +976,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1043,13 +998,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1071,11 +1024,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1095,13 +1046,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
         <v>22</v>
-      </c>
-      <c r="H10" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1123,11 +1072,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1149,11 +1096,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1175,11 +1120,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>28</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1201,11 +1144,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1227,11 +1168,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>31</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1253,11 +1192,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1279,11 +1216,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>31</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1305,11 +1240,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1331,11 +1264,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
         <v>31</v>
-      </c>
-      <c r="H19" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1357,11 +1288,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1383,11 +1312,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>31</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1409,11 +1336,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1435,11 +1360,9 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
-        <v>40</v>
-      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1461,11 +1384,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1487,11 +1408,9 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>43</v>
-      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1513,11 +1432,9 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1539,11 +1456,9 @@
       <c r="F27" t="s">
         <v>11</v>
       </c>
-      <c r="G27" t="s">
-        <v>31</v>
-      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1565,11 +1480,9 @@
       <c r="F28" t="s">
         <v>11</v>
       </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1591,11 +1504,9 @@
       <c r="F29" t="s">
         <v>11</v>
       </c>
-      <c r="G29" t="s">
-        <v>31</v>
-      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1617,11 +1528,9 @@
       <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="G30" t="s">
-        <v>12</v>
-      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1643,11 +1552,9 @@
       <c r="F31" t="s">
         <v>11</v>
       </c>
-      <c r="G31" t="s">
-        <v>31</v>
-      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1669,11 +1576,9 @@
       <c r="F32" t="s">
         <v>11</v>
       </c>
-      <c r="G32" t="s">
-        <v>12</v>
-      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1695,11 +1600,9 @@
       <c r="F33" t="s">
         <v>11</v>
       </c>
-      <c r="G33" t="s">
-        <v>31</v>
-      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1721,11 +1624,9 @@
       <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="G34" t="s">
-        <v>12</v>
-      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1747,11 +1648,9 @@
       <c r="F35" t="s">
         <v>11</v>
       </c>
-      <c r="G35" t="s">
-        <v>31</v>
-      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1773,11 +1672,9 @@
       <c r="F36" t="s">
         <v>11</v>
       </c>
-      <c r="G36" t="s">
-        <v>12</v>
-      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1799,11 +1696,9 @@
       <c r="F37" t="s">
         <v>11</v>
       </c>
-      <c r="G37" t="s">
-        <v>28</v>
-      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1825,11 +1720,9 @@
       <c r="F38" t="s">
         <v>11</v>
       </c>
-      <c r="G38" t="s">
-        <v>12</v>
-      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1851,11 +1744,9 @@
       <c r="F39" t="s">
         <v>11</v>
       </c>
-      <c r="G39" t="s">
-        <v>28</v>
-      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1877,11 +1768,9 @@
       <c r="F40" t="s">
         <v>11</v>
       </c>
-      <c r="G40" t="s">
-        <v>12</v>
-      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1903,11 +1792,9 @@
       <c r="F41" t="s">
         <v>11</v>
       </c>
-      <c r="G41" t="s">
-        <v>40</v>
-      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1929,11 +1816,9 @@
       <c r="F42" t="s">
         <v>11</v>
       </c>
-      <c r="G42" t="s">
-        <v>43</v>
-      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1955,11 +1840,9 @@
       <c r="F43" t="s">
         <v>11</v>
       </c>
-      <c r="G43" t="s">
-        <v>43</v>
-      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1981,11 +1864,9 @@
       <c r="F44" t="s">
         <v>11</v>
       </c>
-      <c r="G44" t="s">
-        <v>12</v>
-      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2005,13 +1886,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>64</v>
-      </c>
-      <c r="G45" t="s">
-        <v>65</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2033,11 +1912,9 @@
       <c r="F46" t="s">
         <v>11</v>
       </c>
-      <c r="G46" t="s">
-        <v>31</v>
-      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2057,13 +1934,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>64</v>
-      </c>
-      <c r="G47" t="s">
-        <v>65</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2085,11 +1960,9 @@
       <c r="F48" t="s">
         <v>11</v>
       </c>
-      <c r="G48" t="s">
-        <v>31</v>
-      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2109,13 +1982,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>64</v>
-      </c>
-      <c r="G49" t="s">
-        <v>65</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2137,11 +2008,9 @@
       <c r="F50" t="s">
         <v>11</v>
       </c>
-      <c r="G50" t="s">
-        <v>31</v>
-      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2161,13 +2030,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
+        <v>57</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
         <v>64</v>
-      </c>
-      <c r="G51" t="s">
-        <v>65</v>
-      </c>
-      <c r="H51" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2189,11 +2056,9 @@
       <c r="F52" t="s">
         <v>11</v>
       </c>
-      <c r="G52" t="s">
-        <v>31</v>
-      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2213,13 +2078,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>64</v>
-      </c>
-      <c r="G53" t="s">
-        <v>65</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2241,11 +2104,9 @@
       <c r="F54" t="s">
         <v>11</v>
       </c>
-      <c r="G54" t="s">
-        <v>31</v>
-      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2265,13 +2126,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>64</v>
-      </c>
-      <c r="G55" t="s">
-        <v>65</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2293,11 +2152,9 @@
       <c r="F56" t="s">
         <v>11</v>
       </c>
-      <c r="G56" t="s">
-        <v>40</v>
-      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2317,13 +2174,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>64</v>
-      </c>
-      <c r="G57" t="s">
-        <v>65</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2345,11 +2200,9 @@
       <c r="F58" t="s">
         <v>11</v>
       </c>
-      <c r="G58" t="s">
-        <v>40</v>
-      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2369,13 +2222,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>64</v>
-      </c>
-      <c r="G59" t="s">
-        <v>65</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2397,11 +2248,9 @@
       <c r="F60" t="s">
         <v>11</v>
       </c>
-      <c r="G60" t="s">
-        <v>31</v>
-      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2421,13 +2270,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>64</v>
-      </c>
-      <c r="G61" t="s">
-        <v>65</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2449,11 +2296,9 @@
       <c r="F62" t="s">
         <v>11</v>
       </c>
-      <c r="G62" t="s">
-        <v>31</v>
-      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2473,13 +2318,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>64</v>
-      </c>
-      <c r="G63" t="s">
-        <v>65</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2501,11 +2344,9 @@
       <c r="F64" t="s">
         <v>11</v>
       </c>
-      <c r="G64" t="s">
-        <v>40</v>
-      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2525,13 +2366,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>64</v>
-      </c>
-      <c r="G65" t="s">
-        <v>65</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2553,11 +2392,9 @@
       <c r="F66" t="s">
         <v>11</v>
       </c>
-      <c r="G66" t="s">
-        <v>12</v>
-      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2577,13 +2414,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>88</v>
-      </c>
-      <c r="G67" t="s">
-        <v>89</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2605,11 +2440,9 @@
       <c r="F68" t="s">
         <v>11</v>
       </c>
-      <c r="G68" t="s">
-        <v>28</v>
-      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2629,13 +2462,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>88</v>
-      </c>
-      <c r="G69" t="s">
-        <v>89</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2657,11 +2488,9 @@
       <c r="F70" t="s">
         <v>11</v>
       </c>
-      <c r="G70" t="s">
-        <v>28</v>
-      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2681,13 +2510,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>88</v>
-      </c>
-      <c r="G71" t="s">
-        <v>89</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2709,11 +2536,9 @@
       <c r="F72" t="s">
         <v>11</v>
       </c>
-      <c r="G72" t="s">
-        <v>28</v>
-      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2733,13 +2558,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>88</v>
-      </c>
-      <c r="G73" t="s">
-        <v>89</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2761,11 +2584,9 @@
       <c r="F74" t="s">
         <v>11</v>
       </c>
-      <c r="G74" t="s">
-        <v>28</v>
-      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2785,13 +2606,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>88</v>
-      </c>
-      <c r="G75" t="s">
+        <v>80</v>
+      </c>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
         <v>89</v>
-      </c>
-      <c r="H75" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2813,11 +2632,9 @@
       <c r="F76" t="s">
         <v>11</v>
       </c>
-      <c r="G76" t="s">
-        <v>28</v>
-      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2837,13 +2654,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>88</v>
-      </c>
-      <c r="G77" t="s">
-        <v>89</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2865,11 +2680,9 @@
       <c r="F78" t="s">
         <v>11</v>
       </c>
-      <c r="G78" t="s">
-        <v>28</v>
-      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2889,13 +2702,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>88</v>
-      </c>
-      <c r="G79" t="s">
-        <v>89</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2917,11 +2728,9 @@
       <c r="F80" t="s">
         <v>11</v>
       </c>
-      <c r="G80" t="s">
-        <v>43</v>
-      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2941,13 +2750,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>88</v>
-      </c>
-      <c r="G81" t="s">
-        <v>89</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2969,11 +2776,9 @@
       <c r="F82" t="s">
         <v>11</v>
       </c>
-      <c r="G82" t="s">
-        <v>40</v>
-      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2993,13 +2798,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>88</v>
-      </c>
-      <c r="G83" t="s">
-        <v>89</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3021,11 +2824,9 @@
       <c r="F84" t="s">
         <v>11</v>
       </c>
-      <c r="G84" t="s">
-        <v>40</v>
-      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3045,13 +2846,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>88</v>
-      </c>
-      <c r="G85" t="s">
-        <v>89</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3073,11 +2872,9 @@
       <c r="F86" t="s">
         <v>11</v>
       </c>
-      <c r="G86" t="s">
-        <v>40</v>
-      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3097,13 +2894,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>88</v>
-      </c>
-      <c r="G87" t="s">
-        <v>89</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3125,11 +2920,9 @@
       <c r="F88" t="s">
         <v>11</v>
       </c>
-      <c r="G88" t="s">
-        <v>40</v>
-      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3149,13 +2942,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>88</v>
-      </c>
-      <c r="G89" t="s">
-        <v>89</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3177,11 +2968,9 @@
       <c r="F90" t="s">
         <v>11</v>
       </c>
-      <c r="G90" t="s">
-        <v>12</v>
-      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3203,11 +2992,9 @@
       <c r="F91" t="s">
         <v>11</v>
       </c>
-      <c r="G91" t="s">
-        <v>31</v>
-      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3229,11 +3016,9 @@
       <c r="F92" t="s">
         <v>11</v>
       </c>
-      <c r="G92" t="s">
-        <v>12</v>
-      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3253,13 +3038,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>116</v>
-      </c>
-      <c r="G93" t="s">
-        <v>117</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3281,11 +3064,9 @@
       <c r="F94" t="s">
         <v>11</v>
       </c>
-      <c r="G94" t="s">
-        <v>31</v>
-      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3305,13 +3086,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>116</v>
-      </c>
-      <c r="G95" t="s">
-        <v>117</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3333,11 +3112,9 @@
       <c r="F96" t="s">
         <v>11</v>
       </c>
-      <c r="G96" t="s">
-        <v>31</v>
-      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3357,13 +3134,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>116</v>
-      </c>
-      <c r="G97" t="s">
-        <v>117</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3385,11 +3160,9 @@
       <c r="F98" t="s">
         <v>11</v>
       </c>
-      <c r="G98" t="s">
-        <v>31</v>
-      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3409,13 +3182,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>116</v>
-      </c>
-      <c r="G99" t="s">
-        <v>117</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3437,11 +3208,9 @@
       <c r="F100" t="s">
         <v>11</v>
       </c>
-      <c r="G100" t="s">
-        <v>31</v>
-      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3461,13 +3230,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
+        <v>107</v>
+      </c>
+      <c r="G101" t="s"/>
+      <c r="H101" t="s">
         <v>116</v>
-      </c>
-      <c r="G101" t="s">
-        <v>117</v>
-      </c>
-      <c r="H101" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3489,11 +3256,9 @@
       <c r="F102" t="s">
         <v>11</v>
       </c>
-      <c r="G102" t="s">
-        <v>31</v>
-      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3515,11 +3280,9 @@
       <c r="F103" t="s">
         <v>11</v>
       </c>
-      <c r="G103" t="s">
-        <v>40</v>
-      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3539,13 +3302,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>116</v>
-      </c>
-      <c r="G104" t="s">
-        <v>117</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3567,11 +3328,9 @@
       <c r="F105" t="s">
         <v>11</v>
       </c>
-      <c r="G105" t="s">
-        <v>40</v>
-      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3591,13 +3350,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>116</v>
-      </c>
-      <c r="G106" t="s">
-        <v>117</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3619,11 +3376,9 @@
       <c r="F107" t="s">
         <v>11</v>
       </c>
-      <c r="G107" t="s">
-        <v>28</v>
-      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3643,13 +3398,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>116</v>
-      </c>
-      <c r="G108" t="s">
-        <v>117</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3671,11 +3424,9 @@
       <c r="F109" t="s">
         <v>11</v>
       </c>
-      <c r="G109" t="s">
-        <v>12</v>
-      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3695,13 +3446,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>135</v>
-      </c>
-      <c r="G110" t="s">
-        <v>136</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3723,11 +3472,9 @@
       <c r="F111" t="s">
         <v>11</v>
       </c>
-      <c r="G111" t="s">
-        <v>43</v>
-      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3747,13 +3494,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>135</v>
-      </c>
-      <c r="G112" t="s">
-        <v>136</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3775,11 +3520,9 @@
       <c r="F113" t="s">
         <v>11</v>
       </c>
-      <c r="G113" t="s">
-        <v>43</v>
-      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3799,13 +3542,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>135</v>
-      </c>
-      <c r="G114" t="s">
-        <v>136</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3827,11 +3568,9 @@
       <c r="F115" t="s">
         <v>11</v>
       </c>
-      <c r="G115" t="s">
-        <v>43</v>
-      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3851,13 +3590,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>135</v>
-      </c>
-      <c r="G116" t="s">
-        <v>136</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3879,11 +3616,9 @@
       <c r="F117" t="s">
         <v>11</v>
       </c>
-      <c r="G117" t="s">
-        <v>43</v>
-      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3903,13 +3638,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>135</v>
-      </c>
-      <c r="G118" t="s">
-        <v>136</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3931,11 +3664,9 @@
       <c r="F119" t="s">
         <v>11</v>
       </c>
-      <c r="G119" t="s">
-        <v>43</v>
-      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3955,13 +3686,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>135</v>
-      </c>
-      <c r="G120" t="s">
+        <v>125</v>
+      </c>
+      <c r="G120" t="s"/>
+      <c r="H120" t="s">
         <v>136</v>
-      </c>
-      <c r="H120" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3983,11 +3712,9 @@
       <c r="F121" t="s">
         <v>11</v>
       </c>
-      <c r="G121" t="s">
-        <v>31</v>
-      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4007,13 +3734,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>135</v>
-      </c>
-      <c r="G122" t="s">
-        <v>136</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4035,11 +3760,9 @@
       <c r="F123" t="s">
         <v>11</v>
       </c>
-      <c r="G123" t="s">
-        <v>31</v>
-      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4059,13 +3782,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>135</v>
-      </c>
-      <c r="G124" t="s">
-        <v>136</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4087,11 +3808,9 @@
       <c r="F125" t="s">
         <v>11</v>
       </c>
-      <c r="G125" t="s">
-        <v>31</v>
-      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4111,13 +3830,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>135</v>
-      </c>
-      <c r="G126" t="s">
-        <v>136</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4139,11 +3856,9 @@
       <c r="F127" t="s">
         <v>11</v>
       </c>
-      <c r="G127" t="s">
-        <v>31</v>
-      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4163,13 +3878,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>135</v>
-      </c>
-      <c r="G128" t="s">
-        <v>136</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4191,11 +3904,9 @@
       <c r="F129" t="s">
         <v>11</v>
       </c>
-      <c r="G129" t="s">
-        <v>31</v>
-      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4215,13 +3926,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>135</v>
-      </c>
-      <c r="G130" t="s">
-        <v>136</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4243,11 +3952,9 @@
       <c r="F131" t="s">
         <v>11</v>
       </c>
-      <c r="G131" t="s">
-        <v>12</v>
-      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg95601.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg95601.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="166">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,21 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Whitfield</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Whitfield. I would like to call the hearing to order this morning. I know we are going to have some votes. This is a very important hearing, and we certainly want to give everyone an opportunity to give their opening statement and ask questions.    Today's hearing is about H.R. 906, a bill to modify the efficiency standards for grid-enabled water heaters. Many of you may remember a singing group called Dire Straits, and they had this marvelous song, Money for Nothing and the chicks are free. And in the lyrics of that song they talk about moving and selling microwave ovens, refrigerators, and color TVs. And we know in today's world, you can't sell a microwave oven or a color TV or a refrigerator or anything else without the Government dictating what is in the product.    So we find ourselves in a world where the Government is really micromanaging through regulations really everything in our society, whether we are talking about healthcare, the requirements for a community bank to make to a farmer in Kentucky, to make a loan. And now today--last March, I guess it was--the Department of Energy came out with a regulation about hot water heaters.    So we are here today to discuss a bill that will bring regulatory relief to many electricity providers, manufacturers, and consumers across the country. There are approximately 250 electric cooperatives in 34 States that utilize these large electric resistance water heaters in demand response programs to help with reliability and consumer costs during peak periods of energy use.    As I said, the Department issued this new efficiency standard in March of 2010, and they are prohibiting the manufacture of water heaters that are 55 gallons or larger if they are electric resistance heaters, and they are mandating that they go to heat pump technology.    You know, all of us here in Congress, we have groups come in all the time talking about the Government's control in what kind of fan motor you can have, what kind of light bulb you can have, whatever. This is one of those issues that I think just about every Member of Congress agrees that when you are interfering with demand response programs, it is counterproductive.    So hopefully we can introduce this bill, and if people want to try to amend it or whatever, do regular order and try to bring some relief to the American consumer. I get really excited when I think about hot water heaters, and I would like to say more, but right now I am going to yield 1 minute to Mr. Latta of Ohio.</t>
   </si>
   <si>
     <t>412256</t>
   </si>
   <si>
+    <t>Latta</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Latta. I appreciate the chairman for yielding, and you are absolutely right. We all love those hot water heaters when you get in there in the shower in the morning. But Mr. Chairman, thanks again for having this very important hearing today to discuss this very important legislation to modify the efficiency standards for grid-enabled hot water heaters. I am pleased to be a cosponsor of the legislation. I hope the committee can advance the legislation quickly as you said, and that there is great bipartisan support.    The rural electric cooperatives are very important in my district. They provide power to agriculture and manufacturing operations that are important to the local, State, and national and global economy. In fact, I have seven rural electric co-ops in my district, and all seven use voluntary demand response programs to reduce peak demand, increase the use of renewable energy, and decrease costs to the consumer. This legislation permits the continued manufacturing of electric resistant hot water heaters above 75 gallons for use in thermal energy storage and demand response programs. Enabling the manufacturing of these water heaters is vital for the demand response programs. I look forward to today's testimony, Mr. Chairman, and I yield back. I appreciate it. Thank you.</t>
   </si>
   <si>
@@ -76,6 +88,12 @@
     <t>412239</t>
   </si>
   <si>
+    <t>Welch</t>
+  </si>
+  <si>
+    <t>Peter</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Welch. Well, I can't match your lyrics, but I can agree with everything you have said and my colleague, Mr. Latta. You know, the Department of Energy does really good stuff, and I actually think standards are a very important tool. But we also have to have it match what realistically can be done in order to get the benefit of demand response. And there are a lot of homes that have these water heaters that are going to benefit, and this is going to save folks money. So the regulation I think has to have as a goal the maximum deployment and the maximum energy efficiency. And I think that is what is uniting us in this effort here.    I am like Congressman Latta. The local cooperatives are fantastic and really a lifeline for a lot of our citizens in rural areas. And homeowners are doing everything they can to try to save money on their bills. They need an opportunity. They know that less is more if they can save some money. And then when they have their cooperative working with them in this demand response that actually integrates this opportunity of savings with the technology that people actually have in their homes, let us take advantage of it.    So this is great bipartisan legislation, and I am hopeful that we can get this done. And I appreciate, Mr. Chairman and Mr. Ranking Member, your cooperation on this in leading the committee. Thank you. I yield back.</t>
   </si>
   <si>
@@ -91,12 +109,18 @@
     <t xml:space="preserve">    Mr. Whitfield. I would like to call the hearing back to order, and we do expect some of the other members to be here shortly. As I said, we have a great panel of witnesses. I want to thank all of you for coming, and I am just going to introduce you individually as you prepare to give your statement. So our first witness this morning is Gary Connett, who is the Director for Member Services and Demand-Side Management at the Great River Energy entity. So Mr. Connett, you are recognized for 5 minutes. And I would just ask all of you to pull the microphone up close enough so that we can hear you clearly. And thank you for being with us, Mr. Connett.</t>
   </si>
   <si>
+    <t>Connett</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Connett. Thank you. Chairman Whitfield and members of the subcommittee, thank you for inviting me to testify today on legislation to protect grid-enabled water heaters.    You mentioned my name. My name is Gary Connett, Director of Demand-Side Management at Great River Energy, a generation and transmission cooperative that serves 28 member retail distribution cooperatives located in Minnesota and Northwestern Wisconsin. And I, by the way, am one of these people that actually has one of these water heaters that we are talking about today. I want to thank the subcommittee for addressing this important and timely issue. Large-capacity electric resistance water heaters are essential demand response tools for electric cooperatives. Immediate action is needed to mitigate the impacts of a 2010 Department of Energy efficiency rule and help maintain our ability to use those water heaters in voluntary demand response programs.    The DOE rule which goes into effect on April 16, as you mentioned, effectively bans the manufacture of electric resistance water heaters with this storage capacity of over 55 gallons. As manufacturers prepare to shut down production lines, this widely supported legislation is urgently needed.    The electric industry is searching for a low-cost battery to store electricity. At Great River Energy, we think we have it. It is in the basements of nearly 100,000 homes in Minnesota. It charges each night and discharges every day in the form of hot water. It does this night after night, year after year, storing and discharging over 1,000 megawatt hours every day. I would argue that it might be the largest battery in the upper Midwest. This battery consists precisely of the same water heaters that the DOE wants to ban.    Through demand response programs offered by electric cooperatives, these super-insulated, high-efficiency water heaters store low-cost off-peak energy which is available in the nighttime hours. We store it in the form of hot water. They allow for the better utilization of renewable energy and more efficient operation of the electric grid. More importantly, water heaters play an important role in cooperatives' efforts to provide its member-owners with safe, reliable, and affordable electric energy.    Even when not tied to renewable energy, cooperatives across the country use these water heaters to reduce demand for electricity during peak hours which would otherwise be served by additional and less efficient electric generators. Today over 250 electric cooperatives across the country are engaged in voluntary demand response programs using large-capacity electric-resistance water heaters.    They are one of the best tools cooperatives have for integrating renewable energy and encouraging demand response and improving system reliability.    So on April 16 a new efficiency standard will take effect. This standard will require all large-capacity electric water heaters to operate at about 200 percent efficiency, a level that only heat-pump water heaters can achieve. While heat pump water heaters are energy efficient, they don't work so well with utility demand response programs and they don't work so well in cold climates, such as Minnesota.    The DOE, despite its good intentions, was unaware of the impact that its rule would have on utilities' demand response programs. However, due to regulatory hurdles, the DOE has not been able to resolve the issue.    In a great cooperative fashion, the National Rural Electric Cooperative Association worked with a large stakeholder group to come up with a legislative solution that will not only help protect these water heaters but will also advance water heater technology by establishing criteria for grid-enabled water heaters. The widespread stakeholder support for this solution should make it an easy decision to pass this urgent legislation immediately.    H.R. 906 doesn't repeal the DOE standard but rather permits the continued manufacture of large capacity water heaters above 75 gallons for use in demand response programs. The legislation includes language to prevent these water heaters from entering the market unless they are used in utility demand response programs.    As the subcommittee is aware, the consensus legislation has been incorporated into numerous pieces of energy efficiency legislation in both the House and the Senate over the past 2 years. Last March the House passed H.R. 2126, the Energy Efficiency Improvement Act, by an overwhelming vote of 375 to 36. Three of the four titles of H.R. 2126 were recently attached to S. 1, a bill to approve the Keystone pipeline, a bill that passed both the House and Senate in this Congress but was vetoed for reasons unrelated to the water heater title.    In summary, H.R. 906 is a good bill. It fixes things to everyone's liking. On behalf of Great River Energy and the other cooperatives across the Nation who face the threat to this new DOE standard, I want to thank Chairman Whitfield and Representative Welch as well as Representatives Latta, Loebsack, Cramer, and Doyle for their leadership on the current legislation and persistence in seeing it through. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Whitfield. Mr. Connett, thank you very much for your statement. At this time, I would like to recognize Steven Koep who is the Utility Sales Manager at the Vaughn Thermal Corporation and the Vaughn Electric Water Heaters. Thank you very much for being with us this morning, and we look forward to your 5 minutes of testimony.</t>
   </si>
   <si>
+    <t>Koep</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Koep. Good morning and thank you.</t>
   </si>
   <si>
@@ -121,12 +145,18 @@
     <t xml:space="preserve">    Mr. Whitfield. Thanks very much, Mr. Koep. At this time I would like to introduce Mr. Steve Nadel who is the Executive Director of the American Council for an Energy-Efficient Economy. Thanks for being with us, and you are recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>Nadel</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Nadel. OK. Thank you, Mr. Chairman, Mr. Ranking Member, the members of the committee. As you noted, I am with the American Council for an Energy-Efficient Economy. We are a non-profit research organization that works on technologies, programs, and policies to advance energy efficiency. We have been doing this for 35 years now, and over this period, substantial progress has been made on energy efficiency, due in part to strong bipartisan support from Congress. As you, Mr. Chairman, stated at a previous hearing I testified at, no one is in favor of energy waste.    I am here today like the other witnesses to testify in support of H.R. 906. Water heating is a major use of home energy use, second only to space heating. For homes with electric water heating, the water heater is generally the single largest electricity user. Due to the high cost of water heaters, they were included in part of Federal energy efficiency standards passed by Congress in 1987 and signed by President Reagan. Congress set the initial standards, and DOE periodically revises these standards based on criteria that Congress established.    A 2012 analysis estimates that the standards already enacted on water heaters as well as other products are saving consumers and businesses in the United States a cumulative trillion dollars. So these are enormous savings, not million, not billion, trillion.    In 2010, as we have already heard, after a multistep rulemaking process, DOE established new efficiency standards for water heaters that take effect next month. The standards apply at the point of manufacture and do not affect water heaters already in houses or in the sales distribution system. The new standards require moderate efficiency improvements in water heaters with a storage capacity of 55 gallons or less but much larger efficiency improvements in both electric and gas water heaters over 55 gallons. I would note that 50 gallons is the average electric water heater. So these only apply above those stronger standards, above that.    Households with very large water heaters use more hot water on average, making higher efficiency levels cost effective. When DOE established the standards, it estimated that the average household with a very large electric water heater would save over $600 over the life cycle of their high efficiency unit.    Now, as we have heard, many electric cooperatives as well as some other utilities have long sponsored programs to use water heaters to heat and store hot water during off-peak periods, such as overnight, permitting lower energy use during peak periods. These programs help utilities manage their systems by reducing peak loads. A timer or radio control or other type of communication device controls the water heaters to generally stop them from operating during peak periods.    After DOE issued the rule in 2010, some utilities realized that the very large electric-resistance water heaters they sometimes use in demand response and thermal storage programs would no longer be manufactured. There are heat pump water heaters, but these have not yet been fully evaluated and field tested for use in demand response and thermal storage programs.    To address these concerns, as we have all heard, many organizations negotiated the language in H.R. 906, and we very much appreciate the chairman and the other cosponsors. It carefully balances opportunities for saving energy via high-efficiency water heaters with the benefits to utilities of using large electric water heaters and demand response and thermal storage programs. It allows for the continued manufacture of these large electric resistance water heaters with a variety of provisions to limit their use to homes participating in demand response and thermal storage programs. The bill also provides guidance so that DOE will carefully consider both energy efficiency and demand response opportunities in future rulemakings.    So, as I said, we do support this bill. We also recommend that this committee consider other energy efficiency bills. We hope that this is just the beginning of what we think could be a very productive Congress in terms of energy efficiency. So with that, I look forward to your questions, and thank you for the opportunity to testify.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Whitfield. Thank you very much, Mr. Nadel, for that statement. At this time I would like to recognize Mr. Robin Roy who is the Director for Building Energy Efficiency and Clean Energy Strategy at the Natural Resources Defense Council. Thank you very much for being with us, and you are recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>Roy</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Roy. Thank you, Mr. Chairman, and members of the subcommittee. Thank you for the opportunity to share the views of the Natural Resources Defense Council on grid-enabled water heaters which we believe present a promising opportunity for a more efficient, more economic, and ultimately lower emissions electricity system overall. We really appreciate your leadership on this issue and your sponsorship of this bill.    In brief, NRDC supports H.R. 906 to allow continued production, use, and evaluation of grid-enabled water heaters. One of NRDC's top institutional priorities is creating and facilitating a clean energy future, and to that end we have long supported and advocated for greater energy efficiency, greater productivity, and using Federal energy appliance standards as one tool in the portfolio for getting there.    Given our longstanding support for stronger energy efficiency, it may seem surprising that we support this legislation, which allows for continued production of electric resistance water heaters that may use double or more the energy of a heat pump water heater that would otherwise be required. But there is a good reason. We explored the opportunities. We talked to our colleagues here and many others in manufacturing and among utilities, and we found the case persuasive. We worked with these colleagues from manufacturing, utilities, other efficiency and environmental organizations, and we came up with an approach that delivers on the opportunity for efficiency savings and delivers on the opportunity for grid-interactive water heating, demand response and ancillary services. It doesn't undermine the opportunities from the efficiency standards. This language is a product of that work.    I have to say as a bit of an aside, sometimes when a lot of folks get together, it is hard work to come up with something that we can all agree on. We come with different perspectives. And sometimes that goes into an abyss. We never hear anything from it again. And it is so pleasing to see something like H.R. 906. I really do appreciate the effort. We see the result of our hard work, and it kind of encourages us at NRDC to do more of that, reaching out to other parties, and I really do appreciate that. I know I burned some time on that, but it is really important.    The key opportunity here is, as my colleagues have already expressed, is the achievement of benefits at a system level. Federal energy appliance standards focus on the component level. We recognize the difference. We are looking towards having while maybe more energy use, having that energy use at more attractive times, lower cost, lower emissions, overall just a much better outcome. We are very keen on that. We recognize that that is the opportunity that is presented by this water heater energy storage, this large battery as my colleagues have said. We are very keen on it.    One of the key elements of H.R. 906 that we are so delighted by is that it allows for, really encourages, much more analysis of consumer and environmental impacts from grid-enabled water heaters. It is built right in. There is so much to be learned about the effectiveness of these water heaters. Actually, there is so much to be learned about not just grid-enabled water heaters but about heat pump water heaters and what might be done to optimize our energy use delivering the greatest consumer and environmental outcomes.    We are at a really early stage analytically. It is inherently complex. There are a lot of other water heater technologies existing and emerging. Conditions in Mr. Connett's area are different from conditions in the Pacific Northwest, and those are different from those in the South. Getting analysis right is not always that easy, but it is really worth doing for water heaters. They are 15 percent or more of residential energy use. They are big. If we get this one right, even small improvements can deliver great consumer and environmental outcomes.    One issue that is often on some people's minds is whether this grid-enabled water heater legislation will pose a problem for heat pump water heaters. We don't think that is the case. We think that grid-enabled water heaters, this legislation, focuses on a fairly small market segment where heat pump water heaters may not be most well-suited and in fact, the attention to water heating, the further analysis that will come from this, may actually end up delivering much more advance in all sorts of water heater technologies, both in development of technologies and understanding them and deploying them through good utility programs and consumer choices.    I think that is really pretty much all I want to say. I can talk a little bit more about our long and abiding love for Federal energy standards as one of the tools in the portfolio that give us a more efficient, economic future, but I think that is already on the record pretty well. I appreciate the opportunity.</t>
   </si>
   <si>
@@ -190,6 +220,12 @@
     <t>412487</t>
   </si>
   <si>
+    <t>McKinley</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. McKinley. Thank you, Mr. Chairman, and thank you for having this hearing. I am curious back on the comment that I think it was you, Mr. Koep, said about the heat pump water heater at around the cost of $1,500. Also labor would be a little higher, too, wouldn't it, installing that?</t>
   </si>
   <si>
@@ -259,6 +295,12 @@
     <t>412319</t>
   </si>
   <si>
+    <t>Tonko</t>
+  </si>
+  <si>
+    <t>Paul</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Tonko. Thank you, Mr. Chair, and welcome to our panelists. Mr. Connett, what are your estimates for savings to the utility and to the customer, to consumers, achieved through the use of demand-response programs?</t>
   </si>
   <si>
@@ -340,6 +382,12 @@
     <t>412485</t>
   </si>
   <si>
+    <t>Griffith</t>
+  </si>
+  <si>
+    <t>H.</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Griffith. Thank you very much, Mr. Chairman. I appreciate you all being here, and listening to your testimony today is making me think I should go ahead and get a new hot water heater because mine clearly is not going be nearly as efficient as what you all are talking about.    I am concerned about some things. The gentleman just brought up the warning label. I do think that we probably need to take a look at that and see if we can make sure we let folks know that it will go to 50 percent of efficiency if it is tampered with, and the whole lock-and-key mechanism concerns me some. I will tell you that when this was a part of a Senate amendment to a House bill, I looked at it, and fortunately the penalties do not include incarceration for trying to get around the system by doing something to the machine. But it does include a fine penalty which causes me concern. It always makes me nervous when we are mandating things. And so I am trying to figure out--and I know most consumers will just, you know, this is what is available on the market. If something happens, their plumber tells them this is what you need to buy. They will buy that or they will go to the Home Depot and get something off the shelf. But if somebody really wants to have 100 gallons ready whenever they want it, what would keep them from buying two, 50-gallon hot water heaters under this program or this bill?</t>
   </si>
   <si>
@@ -392,6 +440,12 @@
   </si>
   <si>
     <t>400160</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>Gene</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Green. Thank you, Mr. Chairman. I would like to put my statement into the record, and I can go straight to questions.    Mr. Roy, I have some questions, and I have to admit, coming from Texas and refining and oil, we normally don't agree with the NRDC. But today that is a different case. Does NRDC have a sense of why new efficiency standards were proposed by DOE?</t>
@@ -806,7 +860,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H131"/>
+  <dimension ref="A1:I131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -814,7 +868,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -836,3125 +890,3608 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s"/>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s"/>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
-      <c r="H6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" t="s"/>
+      <c r="I6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>23</v>
+      </c>
+      <c r="G8" t="s">
+        <v>24</v>
+      </c>
       <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>23</v>
+      </c>
+      <c r="G10" t="s">
+        <v>24</v>
+      </c>
       <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" t="s"/>
+      <c r="I14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>34</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>34</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>43</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G27" t="s">
+        <v>34</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>34</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G31" t="s">
+        <v>34</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G33" t="s">
+        <v>34</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" t="s"/>
-      <c r="H34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>13</v>
+      </c>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G35" t="s">
+        <v>34</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G36" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G37" t="s">
+        <v>31</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G38" t="s">
+        <v>13</v>
+      </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G39" t="s">
+        <v>31</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G40" t="s">
+        <v>13</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>11</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G41" t="s">
+        <v>43</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>11</v>
-      </c>
-      <c r="G42" t="s"/>
-      <c r="H42" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s"/>
+      <c r="I42" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>11</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>11</v>
-      </c>
-      <c r="G44" t="s"/>
-      <c r="H44" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G44" t="s">
+        <v>13</v>
+      </c>
+      <c r="H44" t="s"/>
+      <c r="I44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>57</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="G45" t="s">
+        <v>68</v>
+      </c>
       <c r="H45" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="I45" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>11</v>
-      </c>
-      <c r="G46" t="s"/>
-      <c r="H46" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G46" t="s">
+        <v>34</v>
+      </c>
+      <c r="H46" t="s"/>
+      <c r="I46" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>57</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="G47" t="s">
+        <v>68</v>
+      </c>
       <c r="H47" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="I47" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>11</v>
-      </c>
-      <c r="G48" t="s"/>
-      <c r="H48" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G48" t="s">
+        <v>34</v>
+      </c>
+      <c r="H48" t="s"/>
+      <c r="I48" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>57</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="G49" t="s">
+        <v>68</v>
+      </c>
       <c r="H49" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="I49" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>11</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G50" t="s">
+        <v>34</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>57</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="G51" t="s">
+        <v>68</v>
+      </c>
       <c r="H51" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="I51" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>11</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G52" t="s">
+        <v>34</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>57</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="G53" t="s">
+        <v>68</v>
+      </c>
       <c r="H53" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="I53" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>11</v>
-      </c>
-      <c r="G54" t="s"/>
-      <c r="H54" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G54" t="s">
+        <v>34</v>
+      </c>
+      <c r="H54" t="s"/>
+      <c r="I54" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>57</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="G55" t="s">
+        <v>68</v>
+      </c>
       <c r="H55" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="I55" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>11</v>
-      </c>
-      <c r="G56" t="s"/>
-      <c r="H56" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G56" t="s">
+        <v>43</v>
+      </c>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>57</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="G57" t="s">
+        <v>68</v>
+      </c>
       <c r="H57" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="I57" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>11</v>
-      </c>
-      <c r="G58" t="s"/>
-      <c r="H58" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G58" t="s">
+        <v>43</v>
+      </c>
+      <c r="H58" t="s"/>
+      <c r="I58" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>57</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="G59" t="s">
+        <v>68</v>
+      </c>
       <c r="H59" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="I59" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>11</v>
-      </c>
-      <c r="G60" t="s"/>
-      <c r="H60" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G60" t="s">
+        <v>34</v>
+      </c>
+      <c r="H60" t="s"/>
+      <c r="I60" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>57</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="G61" t="s">
+        <v>68</v>
+      </c>
       <c r="H61" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="I61" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>11</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G62" t="s">
+        <v>34</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>57</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="G63" t="s">
+        <v>68</v>
+      </c>
       <c r="H63" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="I63" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>11</v>
-      </c>
-      <c r="G64" t="s"/>
-      <c r="H64" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G64" t="s">
+        <v>43</v>
+      </c>
+      <c r="H64" t="s"/>
+      <c r="I64" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>57</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="G65" t="s">
+        <v>68</v>
+      </c>
       <c r="H65" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="I65" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>11</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G66" t="s">
+        <v>13</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>80</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>92</v>
+      </c>
+      <c r="G67" t="s">
+        <v>93</v>
+      </c>
       <c r="H67" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>94</v>
+      </c>
+      <c r="I67" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>11</v>
-      </c>
-      <c r="G68" t="s"/>
-      <c r="H68" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G68" t="s">
+        <v>31</v>
+      </c>
+      <c r="H68" t="s"/>
+      <c r="I68" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>80</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>92</v>
+      </c>
+      <c r="G69" t="s">
+        <v>93</v>
+      </c>
       <c r="H69" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>94</v>
+      </c>
+      <c r="I69" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>11</v>
-      </c>
-      <c r="G70" t="s"/>
-      <c r="H70" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G70" t="s">
+        <v>31</v>
+      </c>
+      <c r="H70" t="s"/>
+      <c r="I70" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>80</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>92</v>
+      </c>
+      <c r="G71" t="s">
+        <v>93</v>
+      </c>
       <c r="H71" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>94</v>
+      </c>
+      <c r="I71" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>11</v>
-      </c>
-      <c r="G72" t="s"/>
-      <c r="H72" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G72" t="s">
+        <v>31</v>
+      </c>
+      <c r="H72" t="s"/>
+      <c r="I72" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>80</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>92</v>
+      </c>
+      <c r="G73" t="s">
+        <v>93</v>
+      </c>
       <c r="H73" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>94</v>
+      </c>
+      <c r="I73" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>11</v>
-      </c>
-      <c r="G74" t="s"/>
-      <c r="H74" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G74" t="s">
+        <v>31</v>
+      </c>
+      <c r="H74" t="s"/>
+      <c r="I74" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>80</v>
-      </c>
-      <c r="G75" t="s"/>
+        <v>92</v>
+      </c>
+      <c r="G75" t="s">
+        <v>93</v>
+      </c>
       <c r="H75" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>94</v>
+      </c>
+      <c r="I75" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>11</v>
-      </c>
-      <c r="G76" t="s"/>
-      <c r="H76" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G76" t="s">
+        <v>31</v>
+      </c>
+      <c r="H76" t="s"/>
+      <c r="I76" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>80</v>
-      </c>
-      <c r="G77" t="s"/>
+        <v>92</v>
+      </c>
+      <c r="G77" t="s">
+        <v>93</v>
+      </c>
       <c r="H77" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>94</v>
+      </c>
+      <c r="I77" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>11</v>
-      </c>
-      <c r="G78" t="s"/>
-      <c r="H78" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G78" t="s">
+        <v>31</v>
+      </c>
+      <c r="H78" t="s"/>
+      <c r="I78" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>80</v>
-      </c>
-      <c r="G79" t="s"/>
+        <v>92</v>
+      </c>
+      <c r="G79" t="s">
+        <v>93</v>
+      </c>
       <c r="H79" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>94</v>
+      </c>
+      <c r="I79" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>11</v>
-      </c>
-      <c r="G80" t="s"/>
-      <c r="H80" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s"/>
+      <c r="I80" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>80</v>
-      </c>
-      <c r="G81" t="s"/>
+        <v>92</v>
+      </c>
+      <c r="G81" t="s">
+        <v>93</v>
+      </c>
       <c r="H81" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>94</v>
+      </c>
+      <c r="I81" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>11</v>
-      </c>
-      <c r="G82" t="s"/>
-      <c r="H82" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G82" t="s">
+        <v>43</v>
+      </c>
+      <c r="H82" t="s"/>
+      <c r="I82" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>80</v>
-      </c>
-      <c r="G83" t="s"/>
+        <v>92</v>
+      </c>
+      <c r="G83" t="s">
+        <v>93</v>
+      </c>
       <c r="H83" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>94</v>
+      </c>
+      <c r="I83" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>11</v>
-      </c>
-      <c r="G84" t="s"/>
-      <c r="H84" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G84" t="s">
+        <v>43</v>
+      </c>
+      <c r="H84" t="s"/>
+      <c r="I84" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>80</v>
-      </c>
-      <c r="G85" t="s"/>
+        <v>92</v>
+      </c>
+      <c r="G85" t="s">
+        <v>93</v>
+      </c>
       <c r="H85" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>94</v>
+      </c>
+      <c r="I85" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>11</v>
-      </c>
-      <c r="G86" t="s"/>
-      <c r="H86" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G86" t="s">
+        <v>43</v>
+      </c>
+      <c r="H86" t="s"/>
+      <c r="I86" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>80</v>
-      </c>
-      <c r="G87" t="s"/>
+        <v>92</v>
+      </c>
+      <c r="G87" t="s">
+        <v>93</v>
+      </c>
       <c r="H87" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>94</v>
+      </c>
+      <c r="I87" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>11</v>
-      </c>
-      <c r="G88" t="s"/>
-      <c r="H88" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G88" t="s">
+        <v>43</v>
+      </c>
+      <c r="H88" t="s"/>
+      <c r="I88" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>80</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>92</v>
+      </c>
+      <c r="G89" t="s">
+        <v>93</v>
+      </c>
       <c r="H89" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>94</v>
+      </c>
+      <c r="I89" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>11</v>
-      </c>
-      <c r="G90" t="s"/>
-      <c r="H90" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G90" t="s">
+        <v>13</v>
+      </c>
+      <c r="H90" t="s"/>
+      <c r="I90" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>11</v>
-      </c>
-      <c r="G91" t="s"/>
-      <c r="H91" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G91" t="s">
+        <v>34</v>
+      </c>
+      <c r="H91" t="s"/>
+      <c r="I91" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>11</v>
-      </c>
-      <c r="G92" t="s"/>
-      <c r="H92" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G92" t="s">
+        <v>13</v>
+      </c>
+      <c r="H92" t="s"/>
+      <c r="I92" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>107</v>
-      </c>
-      <c r="G93" t="s"/>
+        <v>121</v>
+      </c>
+      <c r="G93" t="s">
+        <v>122</v>
+      </c>
       <c r="H93" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>123</v>
+      </c>
+      <c r="I93" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>11</v>
-      </c>
-      <c r="G94" t="s"/>
-      <c r="H94" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G94" t="s">
+        <v>34</v>
+      </c>
+      <c r="H94" t="s"/>
+      <c r="I94" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>107</v>
-      </c>
-      <c r="G95" t="s"/>
+        <v>121</v>
+      </c>
+      <c r="G95" t="s">
+        <v>122</v>
+      </c>
       <c r="H95" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>123</v>
+      </c>
+      <c r="I95" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>11</v>
-      </c>
-      <c r="G96" t="s"/>
-      <c r="H96" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G96" t="s">
+        <v>34</v>
+      </c>
+      <c r="H96" t="s"/>
+      <c r="I96" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>107</v>
-      </c>
-      <c r="G97" t="s"/>
+        <v>121</v>
+      </c>
+      <c r="G97" t="s">
+        <v>122</v>
+      </c>
       <c r="H97" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>123</v>
+      </c>
+      <c r="I97" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>11</v>
-      </c>
-      <c r="G98" t="s"/>
-      <c r="H98" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G98" t="s">
+        <v>34</v>
+      </c>
+      <c r="H98" t="s"/>
+      <c r="I98" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>107</v>
-      </c>
-      <c r="G99" t="s"/>
+        <v>121</v>
+      </c>
+      <c r="G99" t="s">
+        <v>122</v>
+      </c>
       <c r="H99" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>123</v>
+      </c>
+      <c r="I99" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>11</v>
-      </c>
-      <c r="G100" t="s"/>
-      <c r="H100" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G100" t="s">
+        <v>34</v>
+      </c>
+      <c r="H100" t="s"/>
+      <c r="I100" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>107</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>121</v>
+      </c>
+      <c r="G101" t="s">
+        <v>122</v>
+      </c>
       <c r="H101" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>123</v>
+      </c>
+      <c r="I101" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>11</v>
-      </c>
-      <c r="G102" t="s"/>
-      <c r="H102" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G102" t="s">
+        <v>34</v>
+      </c>
+      <c r="H102" t="s"/>
+      <c r="I102" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>11</v>
-      </c>
-      <c r="G103" t="s"/>
-      <c r="H103" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G103" t="s">
+        <v>43</v>
+      </c>
+      <c r="H103" t="s"/>
+      <c r="I103" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>107</v>
-      </c>
-      <c r="G104" t="s"/>
+        <v>121</v>
+      </c>
+      <c r="G104" t="s">
+        <v>122</v>
+      </c>
       <c r="H104" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>123</v>
+      </c>
+      <c r="I104" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>11</v>
-      </c>
-      <c r="G105" t="s"/>
-      <c r="H105" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G105" t="s">
+        <v>43</v>
+      </c>
+      <c r="H105" t="s"/>
+      <c r="I105" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>107</v>
-      </c>
-      <c r="G106" t="s"/>
+        <v>121</v>
+      </c>
+      <c r="G106" t="s">
+        <v>122</v>
+      </c>
       <c r="H106" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>123</v>
+      </c>
+      <c r="I106" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>11</v>
-      </c>
-      <c r="G107" t="s"/>
-      <c r="H107" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G107" t="s">
+        <v>31</v>
+      </c>
+      <c r="H107" t="s"/>
+      <c r="I107" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>107</v>
-      </c>
-      <c r="G108" t="s"/>
+        <v>121</v>
+      </c>
+      <c r="G108" t="s">
+        <v>122</v>
+      </c>
       <c r="H108" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="109" spans="1:8">
+      <c r="I108" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>11</v>
-      </c>
-      <c r="G109" t="s"/>
-      <c r="H109" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G109" t="s">
+        <v>13</v>
+      </c>
+      <c r="H109" t="s"/>
+      <c r="I109" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>125</v>
-      </c>
-      <c r="G110" t="s"/>
+        <v>141</v>
+      </c>
+      <c r="G110" t="s">
+        <v>142</v>
+      </c>
       <c r="H110" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>143</v>
+      </c>
+      <c r="I110" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>11</v>
-      </c>
-      <c r="G111" t="s"/>
-      <c r="H111" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G111" t="s">
+        <v>46</v>
+      </c>
+      <c r="H111" t="s"/>
+      <c r="I111" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>125</v>
-      </c>
-      <c r="G112" t="s"/>
+        <v>141</v>
+      </c>
+      <c r="G112" t="s">
+        <v>142</v>
+      </c>
       <c r="H112" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>143</v>
+      </c>
+      <c r="I112" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>11</v>
-      </c>
-      <c r="G113" t="s"/>
-      <c r="H113" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G113" t="s">
+        <v>46</v>
+      </c>
+      <c r="H113" t="s"/>
+      <c r="I113" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>125</v>
-      </c>
-      <c r="G114" t="s"/>
+        <v>141</v>
+      </c>
+      <c r="G114" t="s">
+        <v>142</v>
+      </c>
       <c r="H114" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>143</v>
+      </c>
+      <c r="I114" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>11</v>
-      </c>
-      <c r="G115" t="s"/>
-      <c r="H115" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G115" t="s">
+        <v>46</v>
+      </c>
+      <c r="H115" t="s"/>
+      <c r="I115" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>125</v>
-      </c>
-      <c r="G116" t="s"/>
+        <v>141</v>
+      </c>
+      <c r="G116" t="s">
+        <v>142</v>
+      </c>
       <c r="H116" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>143</v>
+      </c>
+      <c r="I116" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>11</v>
-      </c>
-      <c r="G117" t="s"/>
-      <c r="H117" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G117" t="s">
+        <v>46</v>
+      </c>
+      <c r="H117" t="s"/>
+      <c r="I117" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>125</v>
-      </c>
-      <c r="G118" t="s"/>
+        <v>141</v>
+      </c>
+      <c r="G118" t="s">
+        <v>142</v>
+      </c>
       <c r="H118" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>143</v>
+      </c>
+      <c r="I118" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>11</v>
-      </c>
-      <c r="G119" t="s"/>
-      <c r="H119" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G119" t="s">
+        <v>46</v>
+      </c>
+      <c r="H119" t="s"/>
+      <c r="I119" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>125</v>
-      </c>
-      <c r="G120" t="s"/>
+        <v>141</v>
+      </c>
+      <c r="G120" t="s">
+        <v>142</v>
+      </c>
       <c r="H120" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>143</v>
+      </c>
+      <c r="I120" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>11</v>
-      </c>
-      <c r="G121" t="s"/>
-      <c r="H121" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G121" t="s">
+        <v>34</v>
+      </c>
+      <c r="H121" t="s"/>
+      <c r="I121" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>125</v>
-      </c>
-      <c r="G122" t="s"/>
+        <v>141</v>
+      </c>
+      <c r="G122" t="s">
+        <v>142</v>
+      </c>
       <c r="H122" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>143</v>
+      </c>
+      <c r="I122" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>11</v>
-      </c>
-      <c r="G123" t="s"/>
-      <c r="H123" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G123" t="s">
+        <v>34</v>
+      </c>
+      <c r="H123" t="s"/>
+      <c r="I123" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>125</v>
-      </c>
-      <c r="G124" t="s"/>
+        <v>141</v>
+      </c>
+      <c r="G124" t="s">
+        <v>142</v>
+      </c>
       <c r="H124" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>143</v>
+      </c>
+      <c r="I124" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>11</v>
-      </c>
-      <c r="G125" t="s"/>
-      <c r="H125" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G125" t="s">
+        <v>34</v>
+      </c>
+      <c r="H125" t="s"/>
+      <c r="I125" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>125</v>
-      </c>
-      <c r="G126" t="s"/>
+        <v>141</v>
+      </c>
+      <c r="G126" t="s">
+        <v>142</v>
+      </c>
       <c r="H126" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>143</v>
+      </c>
+      <c r="I126" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>11</v>
-      </c>
-      <c r="G127" t="s"/>
-      <c r="H127" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G127" t="s">
+        <v>34</v>
+      </c>
+      <c r="H127" t="s"/>
+      <c r="I127" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>125</v>
-      </c>
-      <c r="G128" t="s"/>
+        <v>141</v>
+      </c>
+      <c r="G128" t="s">
+        <v>142</v>
+      </c>
       <c r="H128" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>143</v>
+      </c>
+      <c r="I128" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>11</v>
-      </c>
-      <c r="G129" t="s"/>
-      <c r="H129" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G129" t="s">
+        <v>34</v>
+      </c>
+      <c r="H129" t="s"/>
+      <c r="I129" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>125</v>
-      </c>
-      <c r="G130" t="s"/>
+        <v>141</v>
+      </c>
+      <c r="G130" t="s">
+        <v>142</v>
+      </c>
       <c r="H130" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>143</v>
+      </c>
+      <c r="I130" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>11</v>
-      </c>
-      <c r="G131" t="s"/>
-      <c r="H131" t="s">
-        <v>147</v>
+        <v>12</v>
+      </c>
+      <c r="G131" t="s">
+        <v>13</v>
+      </c>
+      <c r="H131" t="s"/>
+      <c r="I131" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg95601.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg95601.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="168">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -62,6 +65,9 @@
   </si>
   <si>
     <t>412256</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Latta</t>
@@ -860,7 +866,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I131"/>
+  <dimension ref="A1:J131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -868,7 +874,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -893,3605 +899,3828 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="I2" t="s"/>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" t="s"/>
-      <c r="I4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s"/>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" t="s"/>
-      <c r="I6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s"/>
+      <c r="H6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s"/>
+      <c r="J6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G10" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" t="s"/>
-      <c r="I14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s"/>
+      <c r="J14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" t="s">
-        <v>34</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>36</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" t="s">
-        <v>34</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>36</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" t="s"/>
-      <c r="I18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s"/>
+      <c r="J18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" t="s">
-        <v>34</v>
-      </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>36</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" t="s">
-        <v>34</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>36</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" t="s">
-        <v>43</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>45</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" t="s"/>
-      <c r="I24" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s"/>
+      <c r="J24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" t="s">
-        <v>46</v>
-      </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>48</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" t="s">
-        <v>34</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>36</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" t="s">
-        <v>13</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" t="s">
-        <v>34</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>36</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30" t="s">
-        <v>13</v>
-      </c>
-      <c r="H30" t="s"/>
-      <c r="I30" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
+        <v>14</v>
+      </c>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>12</v>
-      </c>
-      <c r="G31" t="s">
-        <v>34</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>36</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
-      </c>
-      <c r="G32" t="s">
-        <v>13</v>
-      </c>
-      <c r="H32" t="s"/>
-      <c r="I32" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
+        <v>14</v>
+      </c>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>12</v>
-      </c>
-      <c r="G33" t="s">
-        <v>34</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>36</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
-      </c>
-      <c r="G34" t="s">
-        <v>13</v>
-      </c>
-      <c r="H34" t="s"/>
-      <c r="I34" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
+        <v>14</v>
+      </c>
+      <c r="I34" t="s"/>
+      <c r="J34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>12</v>
-      </c>
-      <c r="G35" t="s">
-        <v>34</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>36</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>12</v>
-      </c>
-      <c r="G36" t="s">
-        <v>13</v>
-      </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>14</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>12</v>
-      </c>
-      <c r="G37" t="s">
-        <v>31</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>33</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>12</v>
-      </c>
-      <c r="G38" t="s">
-        <v>13</v>
-      </c>
-      <c r="H38" t="s"/>
-      <c r="I38" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I38" t="s"/>
+      <c r="J38" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>12</v>
-      </c>
-      <c r="G39" t="s">
-        <v>31</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>33</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>12</v>
-      </c>
-      <c r="G40" t="s">
-        <v>13</v>
-      </c>
-      <c r="H40" t="s"/>
-      <c r="I40" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
+        <v>14</v>
+      </c>
+      <c r="I40" t="s"/>
+      <c r="J40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>12</v>
-      </c>
-      <c r="G41" t="s">
-        <v>43</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>45</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>12</v>
-      </c>
-      <c r="G42" t="s">
-        <v>46</v>
-      </c>
-      <c r="H42" t="s"/>
-      <c r="I42" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
+        <v>48</v>
+      </c>
+      <c r="I42" t="s"/>
+      <c r="J42" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>12</v>
-      </c>
-      <c r="G43" t="s">
-        <v>46</v>
-      </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>48</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>12</v>
-      </c>
-      <c r="G44" t="s">
-        <v>13</v>
-      </c>
-      <c r="H44" t="s"/>
-      <c r="I44" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
+        <v>14</v>
+      </c>
+      <c r="I44" t="s"/>
+      <c r="J44" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G45" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="H45" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I45" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>71</v>
+      </c>
+      <c r="J45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>12</v>
-      </c>
-      <c r="G46" t="s">
-        <v>34</v>
-      </c>
-      <c r="H46" t="s"/>
-      <c r="I46" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
+        <v>36</v>
+      </c>
+      <c r="I46" t="s"/>
+      <c r="J46" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G47" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="H47" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I47" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>71</v>
+      </c>
+      <c r="J47" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>12</v>
-      </c>
-      <c r="G48" t="s">
-        <v>34</v>
-      </c>
-      <c r="H48" t="s"/>
-      <c r="I48" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G48" t="s"/>
+      <c r="H48" t="s">
+        <v>36</v>
+      </c>
+      <c r="I48" t="s"/>
+      <c r="J48" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G49" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="H49" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I49" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>71</v>
+      </c>
+      <c r="J49" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>12</v>
-      </c>
-      <c r="G50" t="s">
-        <v>34</v>
-      </c>
-      <c r="H50" t="s"/>
-      <c r="I50" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
+        <v>36</v>
+      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G51" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="H51" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I51" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>71</v>
+      </c>
+      <c r="J51" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>12</v>
-      </c>
-      <c r="G52" t="s">
-        <v>34</v>
-      </c>
-      <c r="H52" t="s"/>
-      <c r="I52" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
+        <v>36</v>
+      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G53" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="H53" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I53" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>71</v>
+      </c>
+      <c r="J53" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>12</v>
-      </c>
-      <c r="G54" t="s">
-        <v>34</v>
-      </c>
-      <c r="H54" t="s"/>
-      <c r="I54" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
+        <v>36</v>
+      </c>
+      <c r="I54" t="s"/>
+      <c r="J54" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G55" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="H55" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I55" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>71</v>
+      </c>
+      <c r="J55" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>12</v>
-      </c>
-      <c r="G56" t="s">
-        <v>43</v>
-      </c>
-      <c r="H56" t="s"/>
-      <c r="I56" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G56" t="s"/>
+      <c r="H56" t="s">
+        <v>45</v>
+      </c>
+      <c r="I56" t="s"/>
+      <c r="J56" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G57" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="H57" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I57" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>71</v>
+      </c>
+      <c r="J57" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>12</v>
-      </c>
-      <c r="G58" t="s">
-        <v>43</v>
-      </c>
-      <c r="H58" t="s"/>
-      <c r="I58" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s">
+        <v>45</v>
+      </c>
+      <c r="I58" t="s"/>
+      <c r="J58" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G59" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="H59" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I59" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>71</v>
+      </c>
+      <c r="J59" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>12</v>
-      </c>
-      <c r="G60" t="s">
-        <v>34</v>
-      </c>
-      <c r="H60" t="s"/>
-      <c r="I60" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G60" t="s"/>
+      <c r="H60" t="s">
+        <v>36</v>
+      </c>
+      <c r="I60" t="s"/>
+      <c r="J60" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G61" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="H61" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I61" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>71</v>
+      </c>
+      <c r="J61" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>12</v>
-      </c>
-      <c r="G62" t="s">
-        <v>34</v>
-      </c>
-      <c r="H62" t="s"/>
-      <c r="I62" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
+        <v>36</v>
+      </c>
+      <c r="I62" t="s"/>
+      <c r="J62" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G63" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="H63" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I63" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>71</v>
+      </c>
+      <c r="J63" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>12</v>
-      </c>
-      <c r="G64" t="s">
-        <v>43</v>
-      </c>
-      <c r="H64" t="s"/>
-      <c r="I64" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
+        <v>45</v>
+      </c>
+      <c r="I64" t="s"/>
+      <c r="J64" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G65" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="H65" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I65" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>71</v>
+      </c>
+      <c r="J65" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>12</v>
-      </c>
-      <c r="G66" t="s">
-        <v>13</v>
-      </c>
-      <c r="H66" t="s"/>
-      <c r="I66" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
+        <v>14</v>
+      </c>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G67" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="H67" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I67" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J67" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>12</v>
-      </c>
-      <c r="G68" t="s">
-        <v>31</v>
-      </c>
-      <c r="H68" t="s"/>
-      <c r="I68" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
+        <v>33</v>
+      </c>
+      <c r="I68" t="s"/>
+      <c r="J68" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G69" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="H69" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I69" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J69" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>12</v>
-      </c>
-      <c r="G70" t="s">
-        <v>31</v>
-      </c>
-      <c r="H70" t="s"/>
-      <c r="I70" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
+        <v>33</v>
+      </c>
+      <c r="I70" t="s"/>
+      <c r="J70" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G71" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="H71" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I71" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J71" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>12</v>
-      </c>
-      <c r="G72" t="s">
-        <v>31</v>
-      </c>
-      <c r="H72" t="s"/>
-      <c r="I72" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
+        <v>33</v>
+      </c>
+      <c r="I72" t="s"/>
+      <c r="J72" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G73" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="H73" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I73" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J73" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>12</v>
-      </c>
-      <c r="G74" t="s">
-        <v>31</v>
-      </c>
-      <c r="H74" t="s"/>
-      <c r="I74" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G74" t="s"/>
+      <c r="H74" t="s">
+        <v>33</v>
+      </c>
+      <c r="I74" t="s"/>
+      <c r="J74" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G75" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="H75" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I75" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J75" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>12</v>
-      </c>
-      <c r="G76" t="s">
-        <v>31</v>
-      </c>
-      <c r="H76" t="s"/>
-      <c r="I76" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G76" t="s"/>
+      <c r="H76" t="s">
+        <v>33</v>
+      </c>
+      <c r="I76" t="s"/>
+      <c r="J76" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G77" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="H77" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I77" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J77" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>12</v>
-      </c>
-      <c r="G78" t="s">
-        <v>31</v>
-      </c>
-      <c r="H78" t="s"/>
-      <c r="I78" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G78" t="s"/>
+      <c r="H78" t="s">
+        <v>33</v>
+      </c>
+      <c r="I78" t="s"/>
+      <c r="J78" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G79" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="H79" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I79" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J79" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>12</v>
-      </c>
-      <c r="G80" t="s">
-        <v>46</v>
-      </c>
-      <c r="H80" t="s"/>
-      <c r="I80" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G80" t="s"/>
+      <c r="H80" t="s">
+        <v>48</v>
+      </c>
+      <c r="I80" t="s"/>
+      <c r="J80" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G81" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="H81" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I81" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J81" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>12</v>
-      </c>
-      <c r="G82" t="s">
-        <v>43</v>
-      </c>
-      <c r="H82" t="s"/>
-      <c r="I82" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G82" t="s"/>
+      <c r="H82" t="s">
+        <v>45</v>
+      </c>
+      <c r="I82" t="s"/>
+      <c r="J82" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G83" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="H83" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I83" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J83" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>12</v>
-      </c>
-      <c r="G84" t="s">
-        <v>43</v>
-      </c>
-      <c r="H84" t="s"/>
-      <c r="I84" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G84" t="s"/>
+      <c r="H84" t="s">
+        <v>45</v>
+      </c>
+      <c r="I84" t="s"/>
+      <c r="J84" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G85" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="H85" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I85" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J85" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>12</v>
-      </c>
-      <c r="G86" t="s">
-        <v>43</v>
-      </c>
-      <c r="H86" t="s"/>
-      <c r="I86" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G86" t="s"/>
+      <c r="H86" t="s">
+        <v>45</v>
+      </c>
+      <c r="I86" t="s"/>
+      <c r="J86" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G87" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="H87" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I87" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J87" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>12</v>
-      </c>
-      <c r="G88" t="s">
-        <v>43</v>
-      </c>
-      <c r="H88" t="s"/>
-      <c r="I88" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G88" t="s"/>
+      <c r="H88" t="s">
+        <v>45</v>
+      </c>
+      <c r="I88" t="s"/>
+      <c r="J88" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G89" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="H89" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I89" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J89" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>12</v>
-      </c>
-      <c r="G90" t="s">
-        <v>13</v>
-      </c>
-      <c r="H90" t="s"/>
-      <c r="I90" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G90" t="s"/>
+      <c r="H90" t="s">
+        <v>14</v>
+      </c>
+      <c r="I90" t="s"/>
+      <c r="J90" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>12</v>
-      </c>
-      <c r="G91" t="s">
-        <v>34</v>
-      </c>
-      <c r="H91" t="s"/>
-      <c r="I91" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G91" t="s"/>
+      <c r="H91" t="s">
+        <v>36</v>
+      </c>
+      <c r="I91" t="s"/>
+      <c r="J91" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>12</v>
-      </c>
-      <c r="G92" t="s">
-        <v>13</v>
-      </c>
-      <c r="H92" t="s"/>
-      <c r="I92" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G92" t="s"/>
+      <c r="H92" t="s">
+        <v>14</v>
+      </c>
+      <c r="I92" t="s"/>
+      <c r="J92" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G93" t="s">
-        <v>122</v>
+        <v>17</v>
       </c>
       <c r="H93" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I93" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>125</v>
+      </c>
+      <c r="J93" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>12</v>
-      </c>
-      <c r="G94" t="s">
-        <v>34</v>
-      </c>
-      <c r="H94" t="s"/>
-      <c r="I94" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G94" t="s"/>
+      <c r="H94" t="s">
+        <v>36</v>
+      </c>
+      <c r="I94" t="s"/>
+      <c r="J94" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G95" t="s">
-        <v>122</v>
+        <v>17</v>
       </c>
       <c r="H95" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I95" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>125</v>
+      </c>
+      <c r="J95" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>12</v>
-      </c>
-      <c r="G96" t="s">
-        <v>34</v>
-      </c>
-      <c r="H96" t="s"/>
-      <c r="I96" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G96" t="s"/>
+      <c r="H96" t="s">
+        <v>36</v>
+      </c>
+      <c r="I96" t="s"/>
+      <c r="J96" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G97" t="s">
-        <v>122</v>
+        <v>17</v>
       </c>
       <c r="H97" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I97" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>125</v>
+      </c>
+      <c r="J97" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>12</v>
-      </c>
-      <c r="G98" t="s">
-        <v>34</v>
-      </c>
-      <c r="H98" t="s"/>
-      <c r="I98" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G98" t="s"/>
+      <c r="H98" t="s">
+        <v>36</v>
+      </c>
+      <c r="I98" t="s"/>
+      <c r="J98" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G99" t="s">
-        <v>122</v>
+        <v>17</v>
       </c>
       <c r="H99" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I99" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>125</v>
+      </c>
+      <c r="J99" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>12</v>
-      </c>
-      <c r="G100" t="s">
-        <v>34</v>
-      </c>
-      <c r="H100" t="s"/>
-      <c r="I100" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G100" t="s"/>
+      <c r="H100" t="s">
+        <v>36</v>
+      </c>
+      <c r="I100" t="s"/>
+      <c r="J100" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G101" t="s">
-        <v>122</v>
+        <v>17</v>
       </c>
       <c r="H101" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I101" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>125</v>
+      </c>
+      <c r="J101" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>12</v>
-      </c>
-      <c r="G102" t="s">
-        <v>34</v>
-      </c>
-      <c r="H102" t="s"/>
-      <c r="I102" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G102" t="s"/>
+      <c r="H102" t="s">
+        <v>36</v>
+      </c>
+      <c r="I102" t="s"/>
+      <c r="J102" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>12</v>
-      </c>
-      <c r="G103" t="s">
-        <v>43</v>
-      </c>
-      <c r="H103" t="s"/>
-      <c r="I103" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G103" t="s"/>
+      <c r="H103" t="s">
+        <v>45</v>
+      </c>
+      <c r="I103" t="s"/>
+      <c r="J103" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G104" t="s">
-        <v>122</v>
+        <v>17</v>
       </c>
       <c r="H104" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I104" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>125</v>
+      </c>
+      <c r="J104" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>12</v>
-      </c>
-      <c r="G105" t="s">
-        <v>43</v>
-      </c>
-      <c r="H105" t="s"/>
-      <c r="I105" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G105" t="s"/>
+      <c r="H105" t="s">
+        <v>45</v>
+      </c>
+      <c r="I105" t="s"/>
+      <c r="J105" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G106" t="s">
-        <v>122</v>
+        <v>17</v>
       </c>
       <c r="H106" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I106" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>125</v>
+      </c>
+      <c r="J106" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>12</v>
-      </c>
-      <c r="G107" t="s">
-        <v>31</v>
-      </c>
-      <c r="H107" t="s"/>
-      <c r="I107" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G107" t="s"/>
+      <c r="H107" t="s">
+        <v>33</v>
+      </c>
+      <c r="I107" t="s"/>
+      <c r="J107" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G108" t="s">
-        <v>122</v>
+        <v>17</v>
       </c>
       <c r="H108" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I108" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>125</v>
+      </c>
+      <c r="J108" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>12</v>
-      </c>
-      <c r="G109" t="s">
-        <v>13</v>
-      </c>
-      <c r="H109" t="s"/>
-      <c r="I109" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G109" t="s"/>
+      <c r="H109" t="s">
+        <v>14</v>
+      </c>
+      <c r="I109" t="s"/>
+      <c r="J109" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G110" t="s">
-        <v>142</v>
+        <v>17</v>
       </c>
       <c r="H110" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I110" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>145</v>
+      </c>
+      <c r="J110" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>12</v>
-      </c>
-      <c r="G111" t="s">
-        <v>46</v>
-      </c>
-      <c r="H111" t="s"/>
-      <c r="I111" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G111" t="s"/>
+      <c r="H111" t="s">
+        <v>48</v>
+      </c>
+      <c r="I111" t="s"/>
+      <c r="J111" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G112" t="s">
-        <v>142</v>
+        <v>17</v>
       </c>
       <c r="H112" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I112" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>145</v>
+      </c>
+      <c r="J112" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>12</v>
-      </c>
-      <c r="G113" t="s">
-        <v>46</v>
-      </c>
-      <c r="H113" t="s"/>
-      <c r="I113" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G113" t="s"/>
+      <c r="H113" t="s">
+        <v>48</v>
+      </c>
+      <c r="I113" t="s"/>
+      <c r="J113" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G114" t="s">
-        <v>142</v>
+        <v>17</v>
       </c>
       <c r="H114" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I114" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>145</v>
+      </c>
+      <c r="J114" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>12</v>
-      </c>
-      <c r="G115" t="s">
-        <v>46</v>
-      </c>
-      <c r="H115" t="s"/>
-      <c r="I115" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G115" t="s"/>
+      <c r="H115" t="s">
+        <v>48</v>
+      </c>
+      <c r="I115" t="s"/>
+      <c r="J115" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G116" t="s">
-        <v>142</v>
+        <v>17</v>
       </c>
       <c r="H116" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I116" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>145</v>
+      </c>
+      <c r="J116" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>12</v>
-      </c>
-      <c r="G117" t="s">
-        <v>46</v>
-      </c>
-      <c r="H117" t="s"/>
-      <c r="I117" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G117" t="s"/>
+      <c r="H117" t="s">
+        <v>48</v>
+      </c>
+      <c r="I117" t="s"/>
+      <c r="J117" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G118" t="s">
-        <v>142</v>
+        <v>17</v>
       </c>
       <c r="H118" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I118" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>145</v>
+      </c>
+      <c r="J118" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>12</v>
-      </c>
-      <c r="G119" t="s">
-        <v>46</v>
-      </c>
-      <c r="H119" t="s"/>
-      <c r="I119" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G119" t="s"/>
+      <c r="H119" t="s">
+        <v>48</v>
+      </c>
+      <c r="I119" t="s"/>
+      <c r="J119" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G120" t="s">
-        <v>142</v>
+        <v>17</v>
       </c>
       <c r="H120" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I120" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>145</v>
+      </c>
+      <c r="J120" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>12</v>
-      </c>
-      <c r="G121" t="s">
-        <v>34</v>
-      </c>
-      <c r="H121" t="s"/>
-      <c r="I121" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G121" t="s"/>
+      <c r="H121" t="s">
+        <v>36</v>
+      </c>
+      <c r="I121" t="s"/>
+      <c r="J121" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G122" t="s">
-        <v>142</v>
+        <v>17</v>
       </c>
       <c r="H122" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I122" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>145</v>
+      </c>
+      <c r="J122" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>12</v>
-      </c>
-      <c r="G123" t="s">
-        <v>34</v>
-      </c>
-      <c r="H123" t="s"/>
-      <c r="I123" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G123" t="s"/>
+      <c r="H123" t="s">
+        <v>36</v>
+      </c>
+      <c r="I123" t="s"/>
+      <c r="J123" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G124" t="s">
-        <v>142</v>
+        <v>17</v>
       </c>
       <c r="H124" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I124" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>145</v>
+      </c>
+      <c r="J124" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>12</v>
-      </c>
-      <c r="G125" t="s">
-        <v>34</v>
-      </c>
-      <c r="H125" t="s"/>
-      <c r="I125" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G125" t="s"/>
+      <c r="H125" t="s">
+        <v>36</v>
+      </c>
+      <c r="I125" t="s"/>
+      <c r="J125" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G126" t="s">
-        <v>142</v>
+        <v>17</v>
       </c>
       <c r="H126" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I126" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>145</v>
+      </c>
+      <c r="J126" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>12</v>
-      </c>
-      <c r="G127" t="s">
-        <v>34</v>
-      </c>
-      <c r="H127" t="s"/>
-      <c r="I127" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G127" t="s"/>
+      <c r="H127" t="s">
+        <v>36</v>
+      </c>
+      <c r="I127" t="s"/>
+      <c r="J127" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G128" t="s">
-        <v>142</v>
+        <v>17</v>
       </c>
       <c r="H128" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I128" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>145</v>
+      </c>
+      <c r="J128" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>12</v>
-      </c>
-      <c r="G129" t="s">
-        <v>34</v>
-      </c>
-      <c r="H129" t="s"/>
-      <c r="I129" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G129" t="s"/>
+      <c r="H129" t="s">
+        <v>36</v>
+      </c>
+      <c r="I129" t="s"/>
+      <c r="J129" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G130" t="s">
-        <v>142</v>
+        <v>17</v>
       </c>
       <c r="H130" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I130" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>145</v>
+      </c>
+      <c r="J130" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>12</v>
-      </c>
-      <c r="G131" t="s">
-        <v>13</v>
-      </c>
-      <c r="H131" t="s"/>
-      <c r="I131" t="s">
-        <v>165</v>
+        <v>13</v>
+      </c>
+      <c r="G131" t="s"/>
+      <c r="H131" t="s">
+        <v>14</v>
+      </c>
+      <c r="I131" t="s"/>
+      <c r="J131" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
